--- a/02_MasterWifoMannheim/99_Backup/Course114.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course114.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F59281159F990F5575BFE88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A07D664A-DE96-4DEA-AB04-F3047919EA5E}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 647 Strategic and International Human Resource Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This course is intended to expand students’ knowledge on basic human resource management (HRM) processes and instruments by adding an international and a strategic dimension. In the first part of the module (international dimension), we examine the impact of national context on HRM and discuss basic Topics include international recruiting and selection, training and development, compensation, and employee relations. In the second part of the module (strategic dimension), we focus on the dynamics of systems. Various approaches of how singular form bundles are considered. We review how HRM practices can be aligned with respect to other HRM systems that help improve organizations’ performance.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>By the end of the module, students will be able to: … understand the impact of culture and national context on HRM, … analyze differences in international HRM systems, … design basic HRM practices in international organizations, … align HRM practices with regards to their horizontal and vertical fit, … comprehend the processes translating HRM systems into organization’s performance, and… consider contextual factors’ impact on the alignment of HRM systems.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.): 75% Coursework: 25%</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Torsten Biemann / Dr. Jörg Korff</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, LL.M., M.Sc. Econ.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 647 Strategic and International Human Resource Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This course is intended to expand students’ knowledge on basic human resource management (HRM) processes and instruments by adding an international and a strategic dimension. In the first part of the module (international dimension), we examine the impact of national context on HRM and discuss basic Topics include international recruiting and selection, training and development, compensation, and employee relations. In the second part of the module (strategic dimension), we focus on the dynamics of systems. Various approaches of how singular form bundles are considered. We review how HRM practices can be aligned with respect to other HRM systems that help improve organizations’ performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>By the end of the module, students will be able to: … understand the impact of culture and national context on HRM, … analyze differences in international HRM systems, … design basic HRM practices in international organizations, … align HRM practices with regards to their horizontal and vertical fit, … comprehend the processes translating HRM systems into organization’s performance, and… consider contextual factors’ impact on the alignment of HRM systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.): 75% Coursework: 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Torsten Biemann / Dr. Jörg Korff</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, LL.M., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
